--- a/data/income_statement/2digits/size/42_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/42_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>42-Civil engineering</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>42-Civil engineering</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1133 +841,1278 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>481942.8675500001</v>
+        <v>533814.1063700001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>543526.70101</v>
+        <v>611067.84817</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>733345.35169</v>
+        <v>809406.057</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>711605.76518</v>
+        <v>804472.3543299999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1092996.97687</v>
+        <v>1205285.80113</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1462932.36481</v>
+        <v>1615424.09098</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1232525.82533</v>
+        <v>1456597.02894</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3162065.68452</v>
+        <v>3343447.30045</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4829160.57746</v>
+        <v>5041933.137680001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4877761.59784</v>
+        <v>5595598.432809999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7055007.86398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8212534.215780001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5871562.328</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>461871.89323</v>
+        <v>507633.26679</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>517593.59337</v>
+        <v>576518.0460799999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>610704.69603</v>
+        <v>679002.2965000001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>654445.11401</v>
+        <v>735239.8252300001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1048898.98108</v>
+        <v>1146497.1621</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1427218.81998</v>
+        <v>1564364.27163</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1200699.4493</v>
+        <v>1407027.82295</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3126534.52924</v>
+        <v>3290766.13974</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4781118.3573</v>
+        <v>4972977.99406</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4783885.77038</v>
+        <v>5450433.62941</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6837093.041300001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7661602.10274</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5231631.975</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>9396.8645</v>
+        <v>12895.76255</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>9126.5628</v>
+        <v>13247.07702</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>107441.739</v>
+        <v>109606.73563</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>44806.72482</v>
+        <v>48874.68754</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>29097.86221</v>
+        <v>34088.98594</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>20456.24429</v>
+        <v>25236.35298</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>14075.2323</v>
+        <v>21444.41541</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>20355.31072</v>
+        <v>24939.26744</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>19030.75471</v>
+        <v>27822.65888</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>49515.61403</v>
+        <v>63170.62771</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>160489.77579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>451006.15577</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>537983.77</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>10674.10982</v>
+        <v>13285.07703</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>16806.54484</v>
+        <v>21302.72507</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>15198.91666</v>
+        <v>20797.02487</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>12353.92635</v>
+        <v>20357.84156</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15000.13358</v>
+        <v>24699.65309</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>15257.30054</v>
+        <v>25823.46637</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>17751.14373</v>
+        <v>28124.79058</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15175.84456</v>
+        <v>27741.89327</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>29011.46545</v>
+        <v>41132.48474</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>44360.21343</v>
+        <v>81994.17569</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>57425.04689000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>99925.95727000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>101946.583</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1334.76093</v>
+        <v>1627.41333</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>521.0051500000001</v>
+        <v>698.72389</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1336.07956</v>
+        <v>1556.79719</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1347.20883</v>
+        <v>1382.1362</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2343.40608</v>
+        <v>3012.63035</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1180.70992</v>
+        <v>2430.16106</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1067.75989</v>
+        <v>1909.91755</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1074.77108</v>
+        <v>3709.60416</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1658.04694</v>
+        <v>3222.12713</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>18211.25541</v>
+        <v>21720.44131</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>12188.69303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>296361.28691</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>105000.222</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>958.2010799999999</v>
+        <v>1250.85348</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>459.4694499999999</v>
+        <v>632.65716</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1261.00698</v>
+        <v>1481.72461</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1271.59189</v>
+        <v>1303.46783</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2278.33996</v>
+        <v>2938.00999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1062.61809</v>
+        <v>2247.77778</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1040.75815</v>
+        <v>1826.64657</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>988.85622</v>
+        <v>3617.16682</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1247.64045</v>
+        <v>2475.38885</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>16069.99656</v>
+        <v>18975.2069</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>11153.85717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20132.50484</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>103161.857</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>122.01936</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>33.07271</v>
+        <v>36.52769</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>49.65226999999999</v>
+        <v>49.65227</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>69.95828</v>
+        <v>72.74971000000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8.016489999999999</v>
+        <v>16.64693</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>104.47897</v>
+        <v>146.88253</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>19.85705</v>
+        <v>28.65364</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>23.2804</v>
+        <v>27.43068</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>198.79709</v>
+        <v>219.66032</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2062.31219</v>
+        <v>2666.20165</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>258.95409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>262.27952</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>500.669</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>254.54049</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>28.46299</v>
+        <v>29.53904</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>25.42031</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>5.65866</v>
+        <v>5.91866</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>57.04963000000001</v>
+        <v>57.97343</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>13.61286</v>
+        <v>35.50075000000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7.14469</v>
+        <v>54.61734</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>62.63446</v>
+        <v>65.00666</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>211.6094</v>
+        <v>527.07796</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>78.94665999999999</v>
+        <v>79.03276000000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>775.8817700000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>275966.50255</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1337.696</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>480608.10662</v>
+        <v>532186.6930399999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>543005.69586</v>
+        <v>610369.12428</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>732009.2721299999</v>
+        <v>807849.2598100001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>710258.5563500001</v>
+        <v>803090.2181299998</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1090653.57079</v>
+        <v>1202273.17078</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1461751.65489</v>
+        <v>1612993.92992</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1231458.06544</v>
+        <v>1454687.11139</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3160990.91344</v>
+        <v>3339737.69629</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4827502.53052</v>
+        <v>5038711.01055</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4859550.34243</v>
+        <v>5573877.9915</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7042819.170950001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7916172.928870001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5766562.106</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>395341.0977</v>
+        <v>438929.16561</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>447317.46821</v>
+        <v>499248.80376</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>637400.38611</v>
+        <v>689859.26246</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>609406.1811800001</v>
+        <v>681355.7487699999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>972746.0240999999</v>
+        <v>1062394.27985</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1337981.68154</v>
+        <v>1459641.32953</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1075834.58417</v>
+        <v>1264331.35729</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2534301.78378</v>
+        <v>2688194.33016</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4669076.7356</v>
+        <v>4846395.29889</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4498669.968910001</v>
+        <v>5087621.52953</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6624641.97534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7333875.92359</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5264007.395</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>34887.45785</v>
+        <v>39123.95499000001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>32313.62527</v>
+        <v>37130.81738</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>61554.19667</v>
+        <v>69093.93728</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>22892.17253</v>
+        <v>30848.27705</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>59880.65343000001</v>
+        <v>67175.42814</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>74381.54985</v>
+        <v>84321.80278</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>43254.30718</v>
+        <v>56982.4531</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>161246.74721</v>
+        <v>180067.85266</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>56889.50264</v>
+        <v>85277.41174</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>232058.1893</v>
+        <v>314394.7593200001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>206797.14259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>265472.84351</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>354297.197</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>90454.77299</v>
+        <v>99438.76418000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>125447.99412</v>
+        <v>137938.92134</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>203906.89579</v>
+        <v>216224.19999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>172656.6272</v>
+        <v>186172.53508</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>413825.24044</v>
+        <v>433578.88583</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>663095.5856799999</v>
+        <v>692078.80871</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>501541.40076</v>
+        <v>552649.2749</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1727386.85678</v>
+        <v>1762058.02692</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3768929.94207</v>
+        <v>3809603.62708</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2316675.97038</v>
+        <v>2440783.85663</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4035659.06833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4154866.76526</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2264159.16</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>268993.29386</v>
+        <v>298802.44389</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>287040.06794</v>
+        <v>320803.66094</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>371342.11915</v>
+        <v>403728.59327</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>412503.59545</v>
+        <v>462272.61831</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>497065.19979</v>
+        <v>557574.62592</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>593332.3808099999</v>
+        <v>673274.2270799999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>526505.3890999999</v>
+        <v>646527.6484399999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>641603.8647499999</v>
+        <v>736908.5022099999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>837881.81461</v>
+        <v>940603.0502299999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1923070.23282</v>
+        <v>2291464.4615</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2364155.54472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2886473.66289</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2610647.467</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1005.573</v>
+        <v>1564.00255</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2515.78088</v>
+        <v>3375.4041</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>597.1745</v>
+        <v>812.5319199999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1353.786</v>
+        <v>2062.31833</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1974.93044</v>
+        <v>4065.33996</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7172.1652</v>
+        <v>9966.490960000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4533.48713</v>
+        <v>8171.98085</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4064.31504</v>
+        <v>9159.94837</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5375.47628</v>
+        <v>10911.20984</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>26865.57641</v>
+        <v>40978.45208</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18030.2197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>27062.65193</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>34903.571</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>85267.00892000001</v>
+        <v>93257.52743</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>95688.22765</v>
+        <v>111120.32052</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>94608.88601999999</v>
+        <v>117989.99735</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>100852.37517</v>
+        <v>121734.46936</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>117907.54669</v>
+        <v>139878.89093</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>123769.97335</v>
+        <v>153352.60039</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>155623.48127</v>
+        <v>190355.7541</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>626689.12966</v>
+        <v>651543.36613</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>158425.79492</v>
+        <v>192315.71166</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>360880.37352</v>
+        <v>486256.46197</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>418177.19561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>582297.0052799999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>502554.711</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>80628.17315999999</v>
+        <v>122218.65855</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>95596.91897</v>
+        <v>143542.69064</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>102615.52136</v>
+        <v>168810.64039</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>97085.50752</v>
+        <v>642439.9536700001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>124591.43436</v>
+        <v>207358.74197</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>123565.68064</v>
+        <v>227024.63605</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>157047.73032</v>
+        <v>277361.55915</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>635590.0169299999</v>
+        <v>781252.8366199998</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>159221.8509</v>
+        <v>311856.46843</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>331055.52404</v>
+        <v>580301.1878099999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>408616.61034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>673399.20653</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>537218.326</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>317.1494</v>
+        <v>317.92398</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1432.68592</v>
+        <v>1440.87592</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>840.8075699999999</v>
+        <v>7516.32304</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1094.09706</v>
+        <v>1356.26433</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>783.56111</v>
+        <v>788.67111</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>157.77322</v>
+        <v>1195.66399</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>472.52899</v>
+        <v>576.8974499999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>174.15095</v>
+        <v>811.84369</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>162.63759</v>
+        <v>772.16801</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1535.89378</v>
+        <v>1859.49926</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>698.14029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>923.5542399999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>730.2859999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8217.82863</v>
+        <v>9184.051579999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>8369.402269999999</v>
+        <v>8899.5306</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>11253.40519</v>
+        <v>12214.7679</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>9143.75315</v>
+        <v>10505.22444</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>10213.14858</v>
+        <v>12259.65098</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>9790.04903</v>
+        <v>12904.77073</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>9429.870650000001</v>
+        <v>14077.15404</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>15547.02949</v>
+        <v>19318.2112</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>9416.16906</v>
+        <v>14332.62132</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>27604.64296</v>
+        <v>33563.14427</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>31142.51528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>40428.52908</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>32632.818</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>72093.19513000001</v>
+        <v>112716.68299</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>85794.83078</v>
+        <v>133202.28412</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>90521.30859999999</v>
+        <v>149079.54945</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>86847.65731000001</v>
+        <v>630578.4649000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>113594.72467</v>
+        <v>194310.41988</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>113617.85839</v>
+        <v>212924.20133</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>147145.33068</v>
+        <v>262707.50766</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>619868.8364899999</v>
+        <v>761122.78173</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>149643.04425</v>
+        <v>296751.6791</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>301914.9873</v>
+        <v>544878.5442799999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>376775.95477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>632047.12321</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>503855.222</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4638.83576</v>
+        <v>-28961.13112</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>91.30868000000017</v>
+        <v>-32422.37012</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-8006.635339999999</v>
+        <v>-50820.64304</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3766.867649999999</v>
+        <v>-520705.48431</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-6683.88767</v>
+        <v>-67479.85103999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>204.2927099999995</v>
+        <v>-73672.03565999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-1424.24905</v>
+        <v>-87005.80505000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-8900.887269999999</v>
+        <v>-129709.47049</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-796.05598</v>
+        <v>-119540.75677</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>29824.84948</v>
+        <v>-94044.72584</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9560.58527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-91102.20125</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-34663.615</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5652.921609999999</v>
+        <v>134339.72247</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4068.9917</v>
+        <v>197720.5933</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5790.4655</v>
+        <v>113083.66936</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>9899.790929999999</v>
+        <v>585317.07312</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5430.85093</v>
+        <v>172940.74494</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>12459.60711</v>
+        <v>279623.49519</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>16957.35866</v>
+        <v>436451.77111</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>16774.10931</v>
+        <v>899706.0306199999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>8527.952859999999</v>
+        <v>647642.34806</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>90784.80077</v>
+        <v>1437922.76729</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>38396.17632999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>737992.049</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1000104.457</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>456.33782</v>
+        <v>6451.054300000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>231.32174</v>
+        <v>6844.090380000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>548.72147</v>
+        <v>15613.08542</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>169.25719</v>
+        <v>52696.05967</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>241.74182</v>
+        <v>14765.30306</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>558.33628</v>
+        <v>3963.3902</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2438.19041</v>
+        <v>15158.89871</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1793.70187</v>
+        <v>14746.52366</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>687.1589200000001</v>
+        <v>18222.59233</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1290.79638</v>
+        <v>24577.48723</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2824.46113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>28116.95172</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>31380.628</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>93.62634</v>
+        <v>2012.38742</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>58.96987</v>
+        <v>44360.19617</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>55.12782</v>
+        <v>222.72966</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>130.2859</v>
+        <v>7541.42367</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>127.89</v>
+        <v>274.2740899999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>230.06338</v>
+        <v>6347.78492</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>119.80274</v>
+        <v>8125.25964</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>913.23763</v>
+        <v>24220.03766</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>22.2181</v>
+        <v>14607.77702</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>349.6695500000001</v>
+        <v>55215.51548</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>902.9015800000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>9152.87084</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>19526.052</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1142.03036</v>
+        <v>11407.88393</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1387.76684</v>
+        <v>20672.09511</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1073.66752</v>
+        <v>27202.57334</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>931.7368399999999</v>
+        <v>200988.26651</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1081.40093</v>
+        <v>34827.81114</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1386.37674</v>
+        <v>81271.43969</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2009.07363</v>
+        <v>116738.25166</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1287.67374</v>
+        <v>173475.11134</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1149.03849</v>
+        <v>180724.47029</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10675.23019</v>
+        <v>151236.74292</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6763.30057</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>175197.05585</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>157422.598</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>96.06778999999999</v>
+        <v>96.09238999999999</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>324.71932</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>16.6721</v>
+        <v>155.0267</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>25.6246</v>
+        <v>30.19554</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3.16</v>
+        <v>8.452159999999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>10.09846</v>
+        <v>53.23272</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>21.53221</v>
+        <v>83.21250000000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>22.26443</v>
+        <v>478.34565</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>20.72406</v>
+        <v>1025.31852</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>556.82137</v>
+        <v>1132.38962</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>504.38699</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>463.826</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>16.89805</v>
+        <v>158.18046</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0.056</v>
+        <v>4268.12374</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>36.1473</v>
+        <v>3884.226630000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>0.056</v>
+        <v>12507.93116</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>63.66302</v>
+        <v>4248.106360000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>48.55198</v>
+        <v>3595.09679</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>102.72105</v>
+        <v>3606.60921</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>131.51171</v>
+        <v>4009.79821</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>278.46301</v>
+        <v>8255.96261</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>597.2273200000001</v>
+        <v>11980.89257</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>709.1943199999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>12822.62924</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5638.634</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>85.33405</v>
+        <v>99.1524</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>37.30791000000001</v>
+        <v>6774.70953</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>48.88636</v>
+        <v>231.49274</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>177.32256</v>
+        <v>233.87422</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>35.7925</v>
+        <v>204.33463</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>191.62747</v>
+        <v>340.13204</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>170.7907</v>
+        <v>3171.5187</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>152.4751</v>
+        <v>821.6801899999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>302.95285</v>
+        <v>5040.88223</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>927.82263</v>
+        <v>10555.8813</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1131.15049</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1839.03835</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>31374.429</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2830.47223</v>
+        <v>99990.31591999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1151.27737</v>
+        <v>99561.92938</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3190.53464</v>
+        <v>54496.00019999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1458.8449</v>
+        <v>96904.62827</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3397.66275</v>
+        <v>110773.79512</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>6170.29983</v>
+        <v>161347.60168</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3979.93247</v>
+        <v>261780.95603</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2594.82025</v>
+        <v>284990.56602</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3421.72249</v>
+        <v>262153.27031</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>67803.24434</v>
+        <v>1117771.45394</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>19419.73463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>409424.09715</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>730475.547</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>337.3859</v>
+        <v>448.05962</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>64.11458</v>
+        <v>214.06903</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>42.5088</v>
+        <v>44.51222</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0</v>
+        <v>3.33625</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>49.83664999999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>19.57067</v>
+        <v>882.79605</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>20.75943</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>56.59269999999999</v>
+        <v>258.34308</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>62.9987</v>
+        <v>63.78823000000001</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>3.29868</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>30.66698</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>8.177</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>42.91974</v>
@@ -2087,274 +2138,309 @@
         <v>315.33035</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>93.60481</v>
+        <v>93.64464</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>6304.129849999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>60.04081000000001</v>
+        <v>67.97278</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>23.07793</v>
+        <v>23.07792999999999</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>15.202</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>24.63806</v>
+        <v>34.83601</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>6.9</v>
+        <v>28.663</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>123.70752</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>27.2507</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>36.15613</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>92.78400000000001</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>551.84933</v>
+        <v>13633.67629</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>498.12772</v>
+        <v>14385.33029</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>684.59468</v>
+        <v>11140.37781</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>702.5330900000001</v>
+        <v>208107.22798</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>419.4991</v>
+        <v>7720.85895</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3821.60437</v>
+        <v>21798.94317</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8079.35402</v>
+        <v>27751.10323</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9797.19382</v>
+        <v>396670.7888</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2575.77624</v>
+        <v>157519.62352</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8456.982790000002</v>
+        <v>65325.39803</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6083.12894</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>100868.19575</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>23721.782</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4015.37578</v>
+        <v>40878.16604</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2299.91494</v>
+        <v>138408.9652</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6777.811439999999</v>
+        <v>82829.51594999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>10115.42556</v>
+        <v>67828.17079</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>17967.57367</v>
+        <v>168179.83406</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9402.07223</v>
+        <v>137707.08188</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10023.46692</v>
+        <v>250761.99781</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4469.99076</v>
+        <v>660920.96476</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>23737.75482</v>
+        <v>559918.56547</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>120058.66931</v>
+        <v>1832775.81182</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>40624.91475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>718691.51823</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1293023.7</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>22.24564</v>
+        <v>79.14189999999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>212.0646</v>
+        <v>215.93817</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>298.1</v>
+        <v>378.4022200000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>95.94757000000001</v>
+        <v>194.87675</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>121.11199</v>
+        <v>191.94729</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>30.26022</v>
+        <v>117.42892</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>19.88711</v>
+        <v>80.14505</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>35.30202</v>
+        <v>288.90541</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>274.09305</v>
+        <v>358.81073</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>684.0150600000001</v>
+        <v>807.57176</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>314.3295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>429.9111</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>503.567</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>309.30518</v>
+        <v>762.5003300000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>152.77</v>
+        <v>3676.9285</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>122.559</v>
+        <v>213.71416</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>799.63318</v>
+        <v>846.74213</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>10131.00884</v>
+        <v>10344.14579</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>348.16798</v>
+        <v>2275.41484</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>933.5459599999999</v>
+        <v>1739.6887</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>63.5287</v>
+        <v>7173.10553</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>348.06727</v>
+        <v>5507.461630000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>28252.35063</v>
+        <v>31972.95798</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2618.39242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9282.793210000002</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11203.076</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>6.117229999999999</v>
+        <v>10.25777</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>3.90314</v>
+        <v>23.81421</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>6.018929999999999</v>
+        <v>109.91153</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>138.08775</v>
+        <v>168.76053</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>37.20694</v>
+        <v>246.68487</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>88.30801</v>
+        <v>108.66541</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1506.54151</v>
+        <v>4195.66309</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>78.47533</v>
+        <v>5516.53909</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>73.09618</v>
+        <v>102.9622</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>139.81162</v>
+        <v>231.11186</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>756.44403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>14800.58593</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1106.513</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2665.87543</v>
+        <v>34869.73183</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1240.73163</v>
+        <v>109395.80336</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4460.60178</v>
+        <v>69020.37200999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1646.37406</v>
+        <v>51330.68657</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4413.91646</v>
+        <v>140260.83844</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3669.28721</v>
+        <v>116430.3709</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4834.14432</v>
+        <v>221807.21773</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2623.48182</v>
+        <v>497665.69401</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3369.06179</v>
+        <v>372612.83337</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>72817.61197999999</v>
+        <v>1681232.80763</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>26274.82885</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>641976.62566</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1213032.13</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1.73278</v>
+        <v>28.92439</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2363,34 +2449,39 @@
         <v>28.42825</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0</v>
+        <v>19.09005</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>25.507</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>0.00105</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1.23254</v>
+        <v>71.97064999999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>104.12647</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.69825</v>
+        <v>84.01398999999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>74.35293</v>
+        <v>150.08215</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>3.994</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>21.98644</v>
@@ -2405,13 +2496,13 @@
         <v>6301.971530000001</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2e-05</v>
+        <v>36.73683999999999</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>1.17226</v>
+        <v>1.17231</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>2.04</v>
+        <v>2.04008</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>2.437</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>988.1130800000001</v>
+        <v>5105.62338</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>689.7970799999999</v>
+        <v>25095.83247</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1861.60348</v>
+        <v>13078.18778</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1133.41147</v>
+        <v>8966.043230000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3264.32942</v>
+        <v>17073.97383</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5264.8755</v>
+        <v>18774.02845</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2726.07548</v>
+        <v>22865.27251</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1669.20289</v>
+        <v>150172.59425</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>19672.73828</v>
+        <v>181252.48355</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17984.67209</v>
+        <v>118275.42544</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10658.48295</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>52195.17133</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>67137.414</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4947.307150000001</v>
+        <v>73387.05890999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3418.97508</v>
+        <v>18366.67802</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4015.75505</v>
+        <v>141782.42499</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5810.668860000001</v>
+        <v>46037.6457</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4697.227269999999</v>
+        <v>151246.66059</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6814.741919999999</v>
+        <v>147028.63917</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5850.17663</v>
+        <v>283502.084</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5391.98943</v>
+        <v>78698.565</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4498.362980000001</v>
+        <v>84853.85812</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>32560.28538</v>
+        <v>373312.49384</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>36946.41281999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>277119.23991</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>337907.869</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4593.455089999999</v>
+        <v>11844.81241</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3022.430269999999</v>
+        <v>15803.10178</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3901.5203</v>
+        <v>25177.8114</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5718.87956</v>
+        <v>29255.45391</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>4553.12528</v>
+        <v>146768.61626</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6687.27078</v>
+        <v>143957.77465</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5795.14127</v>
+        <v>44184.59663</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5354.10014</v>
+        <v>44787.67718</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4393.94543</v>
+        <v>55312.23479</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>31640.43572</v>
+        <v>301221.72247</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>33165.99213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>268859.28725</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>327923.479</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>353.85206</v>
+        <v>61542.2465</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>396.54481</v>
+        <v>2563.57624</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>114.23475</v>
+        <v>116604.61359</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>91.78929999999998</v>
+        <v>16782.19179</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>144.10199</v>
+        <v>4478.04433</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>127.47114</v>
+        <v>3070.86452</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>55.03535999999999</v>
+        <v>239317.48737</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>37.88929</v>
+        <v>33910.88782</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>104.41755</v>
+        <v>29541.62333</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>919.84966</v>
+        <v>72090.77137</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3780.42069</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>8259.952659999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>9984.389999999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1329.07444</v>
+        <v>-8886.633600000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-1558.58964</v>
+        <v>8522.579959999997</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-13009.73633</v>
+        <v>-162348.91462</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-2259.43584</v>
+        <v>-49254.22767999995</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-23917.83768</v>
+        <v>-213965.60075</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-3552.91433</v>
+        <v>-78784.26152000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-340.5339399999999</v>
+        <v>-184818.11575</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1988.75815</v>
+        <v>30377.03037</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-20504.22092</v>
+        <v>-116670.8323</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-32009.30444</v>
+        <v>-862210.2642100001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-29614.56597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-348920.91039</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-665490.727</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3669.43194</v>
+        <v>13667.21317</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3285.95882</v>
+        <v>25492.60517</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3826.66809</v>
+        <v>12947.46699</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4913.61696</v>
+        <v>22266.44199</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6090.28948</v>
+        <v>28326.41939</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>9744.217279999999</v>
+        <v>58112.07681000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10824.95828</v>
+        <v>86333.67595</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>13394.32154</v>
+        <v>56091.96639</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>6653.31454</v>
+        <v>110616.25527</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>44574.41205</v>
+        <v>253056.29412</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>42990.89462000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>285283.83877</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>305203.402</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>528.0010100000001</v>
+        <v>3232.14029</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1056.4616</v>
+        <v>6667.188520000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>62.02535</v>
+        <v>1881.5536</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>195.73834</v>
+        <v>1861.06408</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1608.18506</v>
+        <v>1751.40804</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1769.49792</v>
+        <v>3761.22803</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>663.34033</v>
+        <v>12435.32267</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1008.87755</v>
+        <v>17509.26435</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>144.72999</v>
+        <v>17516.13969</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4037.54589</v>
+        <v>9127.3267</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5097.609899999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>57900.40103</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>29508.023</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3141.43093</v>
+        <v>10435.07288</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2229.49722</v>
+        <v>18825.41665</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3764.64274</v>
+        <v>11065.91339</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4717.87862</v>
+        <v>20405.37791</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4482.10442</v>
+        <v>26575.01135</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>7974.71936</v>
+        <v>54350.84878000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10161.61795</v>
+        <v>73898.35328</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>12385.44399</v>
+        <v>38582.70204</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6508.58455</v>
+        <v>93100.11558</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>40536.86616</v>
+        <v>243928.96742</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>37893.28472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>227383.43774</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>275695.379</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3621.94431</v>
+        <v>17999.5721</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>4948.356360000001</v>
+        <v>11737.90928</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>45635.94433</v>
+        <v>109691.07739</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7301.87086</v>
+        <v>54856.43996</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9643.66937</v>
+        <v>73648.80984999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>29550.33441</v>
+        <v>95198.1162</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13442.34143</v>
+        <v>54351.81934</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>38679.76957</v>
+        <v>258869.0996</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>22195.63053</v>
+        <v>202003.84878</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>78400.14987000001</v>
+        <v>581547.6179300001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>60665.47567999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>272464.80905</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>616893.074</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>300.79138</v>
+        <v>792.2428199999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>332.4088</v>
+        <v>845.0156000000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>187.49826</v>
+        <v>295.20893</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>252.54864</v>
+        <v>371.1619200000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>49.25003</v>
+        <v>323.01144</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>427.67801</v>
+        <v>1552.87842</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>130.23137</v>
+        <v>4190.98137</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1187.82366</v>
+        <v>1524.78594</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>271.27382</v>
+        <v>6557.352339999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>800.76289</v>
+        <v>5110.37148</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>444.57956</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1852.42291</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>6122.616</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>739.45204</v>
+        <v>8687.055289999998</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>606.6385300000001</v>
+        <v>1374.38256</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1582.53148</v>
+        <v>6557.18368</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1986.19799</v>
+        <v>2859.89951</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2350.81635</v>
+        <v>5342.01665</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3952.74393</v>
+        <v>5827.65047</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3245.08763</v>
+        <v>8715.283019999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3071.75832</v>
+        <v>16794.85546</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4956.91518</v>
+        <v>21913.46058</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>14799.33549</v>
+        <v>105003.95495</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11354.06996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>60785.95449</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>37263.844</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2581.70089</v>
+        <v>8520.27399</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4009.30903</v>
+        <v>9518.511120000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>43865.91459</v>
+        <v>102838.68478</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5063.12423</v>
+        <v>51625.37853</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7243.60299</v>
+        <v>67983.78175999998</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>25169.91247</v>
+        <v>87817.58731</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10067.02243</v>
+        <v>41445.55495000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>34420.18758999999</v>
+        <v>240549.4582</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>16967.44153</v>
+        <v>173533.03586</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>62800.05149000001</v>
+        <v>471433.2915</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>48866.82616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>209826.43165</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>573506.6139999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1376.562069999999</v>
+        <v>-13218.99253</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-3220.987180000001</v>
+        <v>22277.27585</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-54819.01257</v>
+        <v>-259092.52502</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-4647.68974</v>
+        <v>-81844.22565000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-27471.21757</v>
+        <v>-259287.99121</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-23359.03146</v>
+        <v>-115870.30091</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2957.917089999999</v>
+        <v>-152836.25914</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-27274.20618</v>
+        <v>-172400.10284</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-36046.53691</v>
+        <v>-208058.42581</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-65835.04226</v>
+        <v>-1190701.58802</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-47289.14703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-336101.88067</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-977180.399</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4219.66632</v>
+        <v>6134.101430000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3717.66923</v>
+        <v>8377.06695</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4809.487929999999</v>
+        <v>9342.144980000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4968.4193</v>
+        <v>49742.5762</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5398.393859999999</v>
+        <v>11088.88606</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5573.58995</v>
+        <v>9695.707359999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4881.966699999999</v>
+        <v>19972.20221</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6580.92797</v>
+        <v>87030.33522999998</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>7601.120720000001</v>
+        <v>24243.19692</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>22868.9633</v>
+        <v>54670.78679999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>21923.94419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>54655.44181</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>50202.952</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-2843.10425</v>
+        <v>-19353.09396</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-6938.656409999999</v>
+        <v>13900.2089</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-59628.5005</v>
+        <v>-268434.67</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-9616.109039999999</v>
+        <v>-131586.80185</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-32869.61143</v>
+        <v>-270376.8772700001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-28932.62141</v>
+        <v>-125566.00827</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-7839.88379</v>
+        <v>-172808.46135</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-33855.13415000001</v>
+        <v>-259430.43807</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-43647.65762999999</v>
+        <v>-232301.62273</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-88704.00556000001</v>
+        <v>-1245372.37482</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-69213.09122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-390757.32248</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1027383.351</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2212</v>
+        <v>2489</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2315</v>
+        <v>2694</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2429</v>
+        <v>2879</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2345</v>
+        <v>2932</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2741</v>
+        <v>3536</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2866</v>
+        <v>3836</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2962</v>
+        <v>4153</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2927</v>
+        <v>4205</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3061</v>
+        <v>4505</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4073</v>
+        <v>5352</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5606</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>